--- a/inputs/backup/Claims.xlsx
+++ b/inputs/backup/Claims.xlsx
@@ -14,95 +14,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>BK</t>
   </si>
   <si>
     <t>BL Number</t>
   </si>
   <si>
-    <t>21-0032-001-001</t>
-  </si>
-  <si>
     <t>Origin Country</t>
   </si>
   <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
     <t>Supplier</t>
   </si>
   <si>
-    <t>Ecofibras</t>
-  </si>
-  <si>
     <t>Sup. Trader</t>
   </si>
   <si>
-    <t>Juan Quintero</t>
-  </si>
-  <si>
     <t>Dest. Country</t>
   </si>
   <si>
-    <t>Russia</t>
-  </si>
-  <si>
     <t>Customer</t>
   </si>
   <si>
-    <t>Alians</t>
-  </si>
-  <si>
     <t>Cust. Trader</t>
   </si>
   <si>
     <t>Grade</t>
   </si>
   <si>
-    <t>OCC 12</t>
-  </si>
-  <si>
     <t>Reason of Claim</t>
   </si>
   <si>
-    <t>Low Quality</t>
-  </si>
-  <si>
     <t>Vipa comments</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Cntrs</t>
   </si>
   <si>
     <t>Tons</t>
   </si>
   <si>
-    <t>1.00</t>
-  </si>
-  <si>
     <t>Initial Claimed Amount</t>
   </si>
   <si>
-    <t>111.00</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
     <t>Photos</t>
   </si>
   <si>
@@ -131,9 +92,6 @@
   </si>
   <si>
     <t>Profit</t>
-  </si>
-  <si>
-    <t>0.00</t>
   </si>
   <si>
     <t>Rate</t>
@@ -494,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,168 +549,82 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="R2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
+      <c r="S2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="U2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" t="s">
+      <c r="W2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Y2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Z2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>38</v>
-      </c>
       <c r="AB2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" t="s">
         <v>26</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
